--- a/medicine/Enfance/Sarah_Crossan/Sarah_Crossan.xlsx
+++ b/medicine/Enfance/Sarah_Crossan/Sarah_Crossan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarah Crossan est une autrice irlandaise née le 4 janvier 1981 à Dublin, connue notamment pour ses romans pour adolescents et pour ses romans en vers libre.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sarah Crossan est diplômée de philosophie et littérature à l'Université de Warwick en 1999. En 2003, elle obtient un master en création littéraire dans la même université[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sarah Crossan est diplômée de philosophie et littérature à l'Université de Warwick en 1999. En 2003, elle obtient un master en création littéraire dans la même université.
 Elle enseigne l'anglais pendant plusieurs années à l'Université de Cambridge.
-En 2010, récipiendaire d'une bourse de la fondation Edward Albee[2], elle se consacre à l'écriture d'un premier roman, The Weight of Water (trad. Swimming pool), qui parait en 2012.  
+En 2010, récipiendaire d'une bourse de la fondation Edward Albee, elle se consacre à l'écriture d'un premier roman, The Weight of Water (trad. Swimming pool), qui parait en 2012.  
 Ses romans sont plusieurs fois récompensés. 
 </t>
         </is>
@@ -547,57 +561,132 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série La loi du dôme
-La loi du dôme ((en) Breathe, Bloomsbury, 2012), Bayard Jeunesse, 2016, 448 p.,  (ISBN 978-2747047142), traduction de Camille Kohler Dolez
-La loi du dôme tome 2 : L'espoir ((en) Resist, Bloomsbury, 2013), Bayard Jeunesse, 2016, 440 p.,  (ISBN 978-2747060622), traduction de Camille Kohler Dolez
-One-shots
-(en) Apple and Rain, Bloomsbury, 2015, 328 p.,  (ISBN 978-1408827130), non traduit en français
+          <t>Série La loi du dôme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La loi du dôme ((en) Breathe, Bloomsbury, 2012), Bayard Jeunesse, 2016, 448 p.,  (ISBN 978-2747047142), traduction de Camille Kohler Dolez
+La loi du dôme tome 2 : L'espoir ((en) Resist, Bloomsbury, 2013), Bayard Jeunesse, 2016, 440 p.,  (ISBN 978-2747060622), traduction de Camille Kohler Dolez</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sarah_Crossan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Crossan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>One-shots</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Apple and Rain, Bloomsbury, 2015, 328 p.,  (ISBN 978-1408827130), non traduit en français
 Inséparables ((en) One, Bloomsbury, 2015), Rageot, 2017, 406 p.,  (ISBN 978-2700253269), traduction de Clémentine Beauvais
 Swimming Pool ((en) The Weight of Water, Bloomsbury, 2012), Rageot, 2018, 256 p.,  (ISBN 978-2700256444), traduction de Clémentine Beauvais
 Moon Brothers ((en) Moonrise, Bloomsbury, 2017), Rageot, 2019, 384 p.,  (ISBN 978-2700273687), traduction de Clémentine Beauvais
 Toffee et moi ((en) Toffee, Bloomsbury, 2019), Rageot, 2020, 384 p.,  (ISBN 978-2700273915), traduction de Clémentine Beauvais
-(en) Here is the Beehive, Bloomsbury, 2020, 272 p.,  (ISBN 978-1526619495), non traduit en français
-Collectif
-(en) Here I stand, Walker Books, 2016, 320 p.,  (ISBN 978-1406358384) : recueil de nouvelles de 24 auteurs différents pour Amnesy International, non traduit en français
+(en) Here is the Beehive, Bloomsbury, 2020, 272 p.,  (ISBN 978-1526619495), non traduit en français</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sarah_Crossan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_Crossan</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collectif</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Here I stand, Walker Books, 2016, 320 p.,  (ISBN 978-1406358384) : recueil de nouvelles de 24 auteurs différents pour Amnesy International, non traduit en français
 (en) We come Apart, Bloomsburry, 2017, 325 p.,  (ISBN 978-1408878880), écrit en collaboration avec Brian Conaghan, non traduit en français</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Sarah_Crossan</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sarah_Crossan</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2013 : Sélectionnée pour la Médaille Carnegie pour son roman Swimming Pool[3]
-2015 : Sélectionnée pour la Médaille Carnegie pour son roman Apple and Rain[4]
-2016 : Prix de la meilleure fiction Young-Adult du magazine The Bookseller pour son roman Inséparables[5]
-2016 : Prix CBI Book of the Year pour Inséparables[6]
-2016 : Médaille Carnegie pour Inséparables[7]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2013 : Sélectionnée pour la Médaille Carnegie pour son roman Swimming Pool
+2015 : Sélectionnée pour la Médaille Carnegie pour son roman Apple and Rain
+2016 : Prix de la meilleure fiction Young-Adult du magazine The Bookseller pour son roman Inséparables
+2016 : Prix CBI Book of the Year pour Inséparables
+2016 : Médaille Carnegie pour Inséparables
 2017 : Prix des vieux lecteurs du Red House Children's Book Award (en) pour Inséparables
-2018/2019 : Sélectionné dans la catégorie 3e/Lycée du prix des Incorruptibles[8] pour Inséparables
-2019 : Prix Sainte-Beuve des collégiens pour Inséparables[9]
-2020 : Deutscher Jugendliteraturpreis pour l'édition allemande de Moon Brothers[10]</t>
+2018/2019 : Sélectionné dans la catégorie 3e/Lycée du prix des Incorruptibles pour Inséparables
+2019 : Prix Sainte-Beuve des collégiens pour Inséparables
+2020 : Deutscher Jugendliteraturpreis pour l'édition allemande de Moon Brothers</t>
         </is>
       </c>
     </row>
